--- a/test/pubchem_verification_summary_by_name.xlsx
+++ b/test/pubchem_verification_summary_by_name.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>匹配成功 (通过 Alias ('Glutamic acid, L-, peptides')); 已更新: PubChem_id, Molecular_Formula, Smiles, Molecular_Weight, mw, alogp, hdon; molecule_name(与IUPAC名不一致); Alias(不在同义词中); CAS_id(CAS 不匹配 PubChem: ['25014-27-1', '29456-09-5', '65681-11-0'])</t>
+          <t>匹配成功 (通过 Alias ('Glutamic acid, L-, peptides')); 已更新: PubChem_id, Molecular_Formula, Smiles, Molecular_Weight, mw, alogp, hdon; (交叉验证失败:与原始ID/CAS不符); molecule_name(与IUPAC名不一致); Alias(不在同义词中); CAS_id(CAS 不匹配 PubChem: ['25014-27-1', '29456-09-5', '65681-11-0'])</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>匹配成功 (通过 Alias ('alpha-Aminohydrocinnamic acid, L-')); 已更新: PubChem_id, Molecular_Formula, Smiles, Molecular_Weight, mw, alogp, hdon; molecule_name(与IUPAC名不一致); Alias(不在同义词中); CAS_id(原始 CAS 无效/缺失, PubChem 提供多个: ['63-91-2', '30394-07-1'])</t>
+          <t>匹配成功 (通过 Alias ('alpha-Aminohydrocinnamic acid, L-')); 已更新: PubChem_id, Molecular_Formula, Smiles, Molecular_Weight, mw, alogp, hdon; (交叉验证失败:与原始ID/CAS不符); molecule_name(与IUPAC名不一致); Alias(不在同义词中); CAS_id(原始 CAS 无效/缺失, PubChem 提供多个: ['63-91-2', '30394-07-1'])</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>匹配成功 (通过 molecule_name); 已更新: PubChem_id, CAS_id, mw, alogp; molecule_name(与IUPAC名不一致); Alias(存在于同义词中)</t>
+          <t>匹配成功 (通过 molecule_name); 已更新: PubChem_id, CAS_id, mw, alogp; (交叉验证失败:与原始ID/CAS不符); molecule_name(与IUPAC名不一致); Alias(存在于同义词中)</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>匹配成功 (通过 molecule_name); 已更新: PubChem_id, Molecular_Formula, Smiles, Molecular_Weight, mw, alogp, hdon; molecule_name(与IUPAC名不一致); Alias(不在同义词中); CAS_id(CAS 不匹配 PubChem: ['56-87-1', '25104-18-1', '12798-06-0', '20166-34-1'])</t>
+          <t>匹配成功 (通过 molecule_name); 已更新: PubChem_id, Molecular_Formula, Smiles, Molecular_Weight, mw, alogp, hdon; (交叉验证失败:与原始ID/CAS不符); molecule_name(与IUPAC名不一致); Alias(不在同义词中); CAS_id(CAS 不匹配 PubChem: ['56-87-1', '25104-18-1', '12798-06-0', '20166-34-1'])</t>
         </is>
       </c>
     </row>
